--- a/xlsx/麦片_intext.xlsx
+++ b/xlsx/麦片_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%95%E9%BA%A5</t>
   </si>
   <si>
-    <t>燕麥</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_麦片</t>
+    <t>燕麦</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_麦片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E9%A5%AE%E9%A3%9F</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%AE%E5%A5%B6</t>
   </si>
   <si>
-    <t>鮮奶</t>
+    <t>鲜奶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%AD%90%E4%B9%BE</t>
   </si>
   <si>
-    <t>提子乾</t>
+    <t>提子干</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%82%E6%A0%BC%E7%87%95%E9%BA%A5%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>桂格燕麥公司</t>
+    <t>桂格燕麦公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C</t>
